--- a/data/trans_bre/P70D_R_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P70D_R_2023-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>6.755373165610831</v>
+        <v>6.755373165610829</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.9059368389923366</v>
+        <v>0.9059368389923362</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2051573784129658</v>
+        <v>0.2554258239116614</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.01816334165615743</v>
+        <v>-0.001014660179330827</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.23720689374338</v>
+        <v>12.86009713407977</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2.911614423779242</v>
+        <v>2.710232146004563</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.296446204737913</v>
+        <v>2.296446204737915</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4485798343326599</v>
+        <v>0.4485798343326601</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.062278184598494</v>
+        <v>-0.7104475119401654</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1631074554904375</v>
+        <v>-0.1411317552437832</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.444514907227411</v>
+        <v>5.799282685993274</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.450812437401117</v>
+        <v>1.437861318142753</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-1.204026659271901</v>
+        <v>-1.204026659271903</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.2470555333822096</v>
+        <v>-0.2470555333822098</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.639687580537369</v>
+        <v>-3.606301854703922</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.5762870876143765</v>
+        <v>-0.568554090284394</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8467776250995954</v>
+        <v>1.059238931356084</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.2008762640026713</v>
+        <v>0.3261516447636575</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.715999583119767</v>
+        <v>1.715999583119766</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.9075971578689712</v>
+        <v>0.9075971578689705</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4423467066102498</v>
+        <v>-0.1539207852816396</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2446084073240359</v>
+        <v>-0.1556541631659267</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.839043793832138</v>
+        <v>4.198394883573783</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.798687591537085</v>
+        <v>3.821519654395728</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.512488999737541</v>
+        <v>1.51248899973754</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.355633588604398</v>
+        <v>0.3556335886043979</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09709774127936115</v>
+        <v>0.01028174523240989</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.01319462778068447</v>
+        <v>-0.003778832319947902</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.101811342627018</v>
+        <v>3.136746836337712</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.8621160512674847</v>
+        <v>0.901324914752087</v>
       </c>
     </row>
     <row r="19">
